--- a/data/to_predict.xlsx
+++ b/data/to_predict.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:CI2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CJ1" activeCellId="0" sqref="CJ:CJ"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:CI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1735</v>
+        <v>1142</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0</v>
@@ -714,40 +714,40 @@
         <v>0</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>818</v>
+        <v>533</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>1065</v>
+        <v>809</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>258</v>
+        <v>112.65</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>3111.9</v>
+        <v>2426.92</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>1706725376</v>
+        <v>1679896576</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>959574016</v>
+        <v>491311104</v>
       </c>
       <c r="AB2" s="0" t="n">
-        <v>1161920512</v>
+        <v>679038976</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>3111.9</v>
+        <v>2426.92</v>
       </c>
       <c r="AD2" s="0" t="n">
-        <v>959574016</v>
+        <v>491311104</v>
       </c>
       <c r="AE2" s="0" t="n">
-        <v>65750.8</v>
+        <v>164.03</v>
       </c>
       <c r="AF2" s="0" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="AV2" s="0" t="n">
-        <v>3464</v>
+        <v>3351</v>
       </c>
       <c r="AW2" s="0" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="0" t="n">
-        <v>3464</v>
+        <v>3351</v>
       </c>
       <c r="BH2" s="0" t="n">
         <v>0</v>
@@ -864,46 +864,46 @@
         <v>0</v>
       </c>
       <c r="BR2" s="0" t="n">
-        <v>2287804416</v>
+        <v>2294472704</v>
       </c>
       <c r="BS2" s="0" t="n">
-        <v>3227029504</v>
+        <v>3227226112</v>
       </c>
       <c r="BT2" s="0" t="n">
-        <v>3151396</v>
+        <v>3151588</v>
       </c>
       <c r="BU2" s="0" t="n">
-        <v>21250048</v>
+        <v>21708800</v>
       </c>
       <c r="BV2" s="0" t="n">
-        <v>77725696</v>
+        <v>76992512</v>
       </c>
       <c r="BW2" s="0" t="n">
-        <v>436711424</v>
+        <v>419819520</v>
       </c>
       <c r="BX2" s="0" t="n">
-        <v>25.6</v>
+        <v>17.66</v>
       </c>
       <c r="BY2" s="0" t="n">
         <v>3077</v>
       </c>
       <c r="BZ2" s="0" t="n">
-        <v>1538576384</v>
+        <v>1060741120</v>
       </c>
       <c r="CA2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="CB2" s="0" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="CC2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="CD2" s="0" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="CE2" s="0" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="CF2" s="0" t="n">
         <v>0</v>
